--- a/biology/Zoologie/Caprolagus_hispidus/Caprolagus_hispidus.xlsx
+++ b/biology/Zoologie/Caprolagus_hispidus/Caprolagus_hispidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lapin asiatique[1] ou Lapin de l'Assam[1],[2] (Caprolagus hispidus) est la seule espèce du genre Caprolagus. Il vit en Asie du Sud. C'est un mammifère lagomorphe de la famille des léporidés. L'espèce est menacée de disparition.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lapin asiatique ou Lapin de l'Assam, (Caprolagus hispidus) est la seule espèce du genre Caprolagus. Il vit en Asie du Sud. C'est un mammifère lagomorphe de la famille des léporidés. L'espèce est menacée de disparition.
 </t>
         </is>
       </c>
